--- a/slate_6/iips_window_additive_0.5_6_5000_error8.xlsx
+++ b/slate_6/iips_window_additive_0.5_6_5000_error8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,24 +452,68 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.336982483927629e-05</v>
+        <v>0.01800394619697425</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0002384927140852691</v>
+        <v>0.017599596300377</v>
       </c>
       <c r="C2" t="n">
-        <v>6.440096603785399e-05</v>
+        <v>0.01845724642591143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.383078070439615e-05</v>
+        <v>0.00758963539013935</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001538540030155348</v>
+        <v>0.006107150165293231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005459701552162075</v>
+        <v>0.00925165841775589</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.850372698548645e-06</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0003589949971161775</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00054243330123025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.509910487822374e-05</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.161328502246355e-07</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0002609682293550128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.106254503680816e-05</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.769211005781237e-05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.204848473526188e-06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.01674616642255722</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01092519873499785</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02385606027245464</v>
       </c>
     </row>
   </sheetData>
